--- a/biology/Zoologie/Apistogramma_geisleri/Apistogramma_geisleri.xlsx
+++ b/biology/Zoologie/Apistogramma_geisleri/Apistogramma_geisleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apistogramma geisleri est une espèce de poissons appartenant à la famille des Cichlidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Nom valide</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Apistogramma geisleri
 </t>
@@ -542,7 +556,9 @@
           <t>Nom commun</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cichlidé nain de Geisler.
 </t>
@@ -573,7 +589,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Brésil, originaire du Rio Curucamba, au nord de Obidos.
 </t>
@@ -604,7 +622,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les zones calmes à faible courant.
 </t>
@@ -635,7 +655,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps moyennement élevé, latéralement comprimé. Nageoire dorsale peu élevée à membrane dentelée dépassant peu les épines. Nageoire caudale arrondie.
 Coloration: le mâle possède une robe bleutée à reflets rosâtres. Une bande longitudinale s'étend de la gueule, à travers l’œil, jusqu'au pédoncule caudal où elle se termine généralement par une tache. Cette bande disparaît pendant la parade.
@@ -669,7 +691,9 @@
           <t>Dimorphisme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir description.
 </t>
@@ -700,7 +724,9 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Moyen.
 Zone d'eau :
